--- a/Assignments/Assignment-1-Python/WordWithPython/StudentNames.xlsx
+++ b/Assignments/Assignment-1-Python/WordWithPython/StudentNames.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\HS-Construction-IT\Assignments\Assignment-1-Python\WordWithPython\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A84B7B-77F5-4990-97C5-973828BD3F17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6DBA60-1652-4D76-9664-E6F9B30DCC5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2490" yWindow="825" windowWidth="25290" windowHeight="10245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15495" yWindow="1020" windowWidth="25290" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StudentResults" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
     <t>StudentName</t>
   </si>
   <si>
-    <t>Knumber</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
@@ -223,6 +220,9 @@
   </si>
   <si>
     <t>Stephen Finn</t>
+  </si>
+  <si>
+    <t>KNumber</t>
   </si>
 </sst>
 </file>
@@ -543,7 +543,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,250 +558,250 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
